--- a/biology/Zoologie/Calydna/Calydna.xlsx
+++ b/biology/Zoologie/Calydna/Calydna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calydna est un genre d'insectes lépidoptères de la famille des Riodinidae qui résident tous dans le nord de l'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Calydna leur a été donné par Edward Doubleday en 1847.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calydna cabira Hewitson, 1854; présent en Guyane et au Brésil.
 Calydna caieta Hewitson, 1854; présent en Guyane et au Brésil.
@@ -553,15 +569,15 @@
 Calydna cea Hewitson, 1859; présent au Brésil et au Pérou.
 Calydna charila Hewitson, 1854; présent au Brésil et au Pérou.
 Calydna fissilisima Hall, 2002; présent au Brésil
-Calydna hiria (Godart, [1824]); présent au Brésil et au Pérou.
+Calydna hiria (Godart, ); présent au Brésil et au Pérou.
 Calydna jeannea Hall, 2002; présent au Pérou.
-Calydna lusca (Geyer, [1835]); présent au Mexique et au Pérou.
+Calydna lusca (Geyer, ); présent au Mexique et au Pérou.
 Calydna micra Bates, 1868; présent au Brésil
 Calydna nicolayi Hall, 2002;présent au Pérou.
 Calydna stolata Brévignon, 1998; présent en Guyane
-Calydna thersander (Stoll, [1780]); présent en Guyane, en Guyana, au Surinam et au Brésil.
+Calydna thersander (Stoll, ); présent en Guyane, en Guyana, au Surinam et au Brésil.
 Calydna sturnula (Geyer, 1837) présent au Mexique et au Brésil.
-Calydna venusta Godman &amp; Salvin, [1886]; présent  au Mexique, à Panama, en Colombie, au Venezuela,  à Trinité-et-Tobago, en Guyane, en Guyana, au Surinam et au Brésil.</t>
+Calydna venusta Godman &amp; Salvin, ; présent  au Mexique, à Panama, en Colombie, au Venezuela,  à Trinité-et-Tobago, en Guyane, en Guyana, au Surinam et au Brésil.</t>
         </is>
       </c>
     </row>
